--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:47:26+00:00</t>
+    <t>2022-07-21T02:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T02:38:40+00:00</t>
+    <t>2022-07-22T12:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T12:50:03+00:00</t>
+    <t>2022-07-25T13:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -507,7 +507,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -537,7 +537,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration_Injection|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDispenseBase|MedicationStatement|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -750,7 +750,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -849,7 +849,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1341,7 +1341,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1365,7 +1365,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_SocialHistory)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_SocialHistory)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:41:20+00:00</t>
+    <t>2022-07-26T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:48:24+00:00</t>
+    <t>2022-07-29T00:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:48:21+00:00</t>
+    <t>2022-08-01T01:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T01:14:07+00:00</t>
+    <t>2022-08-01T09:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:08:31+00:00</t>
+    <t>2022-08-01T10:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T10:54:34+00:00</t>
+    <t>2022-08-03T00:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -545,7 +545,7 @@
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation.</t>
+この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -608,7 +608,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation　Obserbationの種類（タイプ）の分類</t>
+    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.
@@ -616,11 +616,36 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP仕様】&lt;br/&gt;
-基底仕様のカテゴリ「social-history」固定とする</t>
+【JP-Core仕様】基底仕様のカテゴリ「social-history」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>socialHistory</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
+必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -631,18 +656,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -657,16 +670,13 @@
 observationの対象物を記述する。 observation の名前で呼ばれることもある。</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-項目についてはMEDISのJ-MIXの「生活背景情報」を基にバリューセットを定義する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+    <t>MEDISのJ-MIXの「生活背景情報」（※宗教を除く）</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/socialHistory-code</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationSocialHistoryCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -703,8 +713,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP仕様】&lt;br/&gt;
-患者</t>
+【JP-Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -737,7 +746,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -799,8 +808,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP仕様】&lt;br/&gt;
-effectiveDateTime：医療者が確認した日時&lt;br/&gt;
+【JP-Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -860,7 +868,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -894,8 +902,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP仕様】&lt;br/&gt;
-文字列、コード、数値に限定する</t>
+【JP-Core仕様】文字列、コード、数値に限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1038,10 +1045,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationBodySite_VS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1074,10 +1078,7 @@
 場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
   </si>
   <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationMethod_VS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1349,7 +1350,7 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1377,8 +1378,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP仕様】&lt;br/&gt;
-導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
+【JP-Core仕様】導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1802,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1812,7 +1812,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.79296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1835,7 +1835,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3515,7 +3515,7 @@
         <v>90</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>81</v>
@@ -3567,25 +3567,23 @@
         <v>114</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>187</v>
@@ -3612,10 +3610,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3623,11 +3621,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3643,22 +3643,22 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -3668,7 +3668,7 @@
         <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>81</v>
@@ -3685,9 +3685,11 @@
       <c r="W16" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3705,13 +3707,13 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
@@ -3720,31 +3722,31 @@
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3763,19 +3765,19 @@
         <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3800,13 +3802,11 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -3824,10 +3824,10 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
@@ -3839,27 +3839,27 @@
         <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3867,10 +3867,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>81</v>
@@ -3882,18 +3882,20 @@
         <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3941,13 +3943,13 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>81</v>
@@ -3956,19 +3958,19 @@
         <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3976,18 +3978,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
@@ -3999,20 +4001,18 @@
         <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4060,13 +4060,13 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
@@ -4075,19 +4075,19 @@
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4095,11 +4095,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4118,19 +4118,19 @@
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4179,7 +4179,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4194,19 +4194,19 @@
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4214,11 +4214,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4237,18 +4237,20 @@
         <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4311,19 +4313,19 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4331,7 +4333,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4342,7 +4344,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4354,20 +4356,18 @@
         <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4415,13 +4415,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4430,19 +4430,19 @@
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4461,7 +4461,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4473,19 +4473,19 @@
         <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4534,42 +4534,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4589,22 +4589,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4629,13 +4629,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4653,7 +4653,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4662,7 +4662,7 @@
         <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
@@ -4671,35 +4671,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4714,16 +4714,16 @@
         <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4748,13 +4748,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4772,16 +4772,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
@@ -4790,28 +4790,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4830,19 +4830,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4867,13 +4867,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4891,7 +4891,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4909,24 +4909,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4937,7 +4937,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4949,18 +4949,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4984,13 +4986,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5008,13 +5010,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5026,24 +5028,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5069,17 +5071,15 @@
         <v>188</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5103,31 +5103,29 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5145,24 +5143,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5185,18 +5183,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5220,13 +5220,11 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5244,7 +5242,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5262,24 +5260,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5302,16 +5300,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5361,7 +5359,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5379,24 +5377,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5407,7 +5405,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5419,20 +5417,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5480,42 +5476,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5526,7 +5522,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5538,16 +5534,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5595,19 +5595,19 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5616,10 +5616,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5630,18 +5630,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5653,17 +5653,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5712,19 +5710,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5736,7 +5734,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5747,11 +5745,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5764,26 +5762,24 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>365</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5831,7 +5827,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5855,7 +5851,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5866,39 +5862,43 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5946,19 +5946,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5967,10 +5967,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6004,13 +6004,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6061,7 +6061,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6070,7 +6070,7 @@
         <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
@@ -6082,10 +6082,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6119,20 +6119,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>188</v>
+        <v>371</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6156,13 +6152,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6180,7 +6176,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6189,7 +6185,7 @@
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6198,13 +6194,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6215,7 +6211,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6226,7 +6222,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6241,16 +6237,16 @@
         <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6275,13 +6271,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>312</v>
+        <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6299,13 +6295,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6317,13 +6313,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6334,7 +6330,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6345,7 +6341,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6357,17 +6353,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>396</v>
+        <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6392,13 +6390,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6416,13 +6414,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6434,13 +6432,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6451,7 +6449,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6474,16 +6472,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6552,10 +6552,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6577,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6586,20 +6586,18 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>406</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6648,13 +6646,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6669,10 +6667,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6683,7 +6681,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6706,16 +6704,16 @@
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6765,7 +6763,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6786,10 +6784,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6800,7 +6798,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6823,20 +6821,18 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6884,7 +6880,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6905,10 +6901,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6919,7 +6915,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6930,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6939,19 +6935,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6999,19 +6999,19 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7020,10 +7020,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7034,18 +7034,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7057,17 +7057,15 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7116,19 +7114,19 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7140,7 +7138,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7151,11 +7149,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7168,26 +7166,24 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>136</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7235,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7259,7 +7255,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7270,42 +7266,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7330,13 +7326,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7354,34 +7350,34 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7389,7 +7385,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7397,7 +7393,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>90</v>
@@ -7412,19 +7408,19 @@
         <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>436</v>
+        <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7449,13 +7445,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7473,10 +7469,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -7491,24 +7487,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7528,22 +7524,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7568,13 +7564,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7592,7 +7588,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7601,7 +7597,7 @@
         <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
@@ -7610,35 +7606,35 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7653,16 +7649,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7687,13 +7683,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7711,16 +7707,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
@@ -7729,28 +7725,28 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7769,19 +7765,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7806,13 +7802,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7830,7 +7826,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7848,18 +7844,137 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -616,7 +616,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP-Core仕様】基底仕様のカテゴリ「social-history」固定とする</t>
+【JP Core仕様】基底仕様のカテゴリ「social-history」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
@@ -713,7 +713,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP-Core仕様】患者</t>
+【JP Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -808,7 +808,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP-Core仕様】effectiveDateTime：医療者が確認した日時
+【JP Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -902,7 +902,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP-Core仕様】文字列、コード、数値に限定する</t>
+【JP Core仕様】文字列、コード、数値に限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1378,7 +1378,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP-Core仕様】導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
+【JP Core仕様】導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1370,7 +1370,7 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation がつくりゃれる元の関連する測定</t>
+    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,7 +293,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1029,23 +1029,23 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-観察が行われた被験者の体の部位（すなわち、標的部位）を示す。</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-Observation.codeにあるコードだけでは暗黙的に部位はわからない場合にだけ使用される。多くのシステムでは、これはデータ中の部分情報ではなく関連する観察（観測）として記述さえる場合がある。
-もしBodySiteを個別のリソースとして処理する必要があるような使用例（たとえば、個別に識別して追跡するなど）においては、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationBodySite_VS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1063,22 +1063,19 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done　どのように実施されたか。</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.
-観測を実行するために使用されるメカニズムを示す。</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.
-Observation.codeのコードでは暗黙的に示されない場合にだけ使用する。</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationMethod_VS</t>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1179,6 +1176,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5105,9 +5106,11 @@
       <c r="W28" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="X28" s="2"/>
+      <c r="X28" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5143,24 +5146,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5186,7 +5189,7 @@
         <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>324</v>
@@ -5222,9 +5225,11 @@
       <c r="W29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="X29" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5242,7 +5247,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5263,10 +5268,10 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5277,7 +5282,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5300,16 +5305,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5359,7 +5364,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5377,24 +5382,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5417,16 +5422,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5476,7 +5481,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5494,24 +5499,24 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5534,19 +5539,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5595,7 +5600,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5607,7 +5612,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5616,10 +5621,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5630,7 +5635,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5653,13 +5658,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5710,7 +5715,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5734,7 +5739,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5745,7 +5750,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5774,7 +5779,7 @@
         <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>139</v>
@@ -5827,7 +5832,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5851,7 +5856,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5862,11 +5867,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5888,10 +5893,10 @@
         <v>136</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>139</v>
@@ -5946,7 +5951,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5981,7 +5986,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6004,13 +6009,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6061,7 +6066,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6070,7 +6075,7 @@
         <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
@@ -6082,10 +6087,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6096,7 +6101,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6119,13 +6124,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6176,7 +6181,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6185,7 +6190,7 @@
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6197,10 +6202,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6211,7 +6216,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,16 +6242,16 @@
         <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6274,10 +6279,10 @@
         <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6295,7 +6300,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6313,10 +6318,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>302</v>
@@ -6330,7 +6335,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6356,16 +6361,16 @@
         <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6393,10 +6398,10 @@
         <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6414,7 +6419,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6432,10 +6437,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>302</v>
@@ -6449,7 +6454,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6472,17 +6477,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6531,7 +6536,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6555,7 +6560,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6566,7 +6571,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6589,13 +6594,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6646,7 +6651,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6667,10 +6672,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6681,7 +6686,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6704,16 +6709,16 @@
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6763,7 +6768,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6784,10 +6789,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6798,7 +6803,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6821,16 +6826,16 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6880,7 +6885,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6901,10 +6906,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6915,7 +6920,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6938,19 +6943,19 @@
         <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6999,7 +7004,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7020,10 +7025,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7034,7 +7039,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7057,13 +7062,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7114,7 +7119,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7138,7 +7143,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7149,7 +7154,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7178,7 +7183,7 @@
         <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>139</v>
@@ -7231,7 +7236,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7260,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7266,11 +7271,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7292,10 +7297,10 @@
         <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>139</v>
@@ -7350,7 +7355,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7385,7 +7390,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7411,13 +7416,13 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>207</v>
@@ -7448,10 +7453,10 @@
         <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7469,7 +7474,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>90</v>
@@ -7487,7 +7492,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>211</v>
@@ -7504,7 +7509,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7527,16 +7532,16 @@
         <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>276</v>
@@ -7588,7 +7593,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7606,7 +7611,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>279</v>
@@ -7623,7 +7628,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7649,13 +7654,13 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>286</v>
@@ -7707,7 +7712,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7742,7 +7747,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7771,13 +7776,13 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7826,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7861,7 +7866,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7887,16 +7892,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7945,7 +7950,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7966,10 +7971,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -676,7 +676,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationSocialHistoryCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationSocialHistoryCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -738,7 +738,7 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物。</t>
+    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
@@ -767,7 +767,7 @@
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダーの相互作用など）（受診、入院など）。</t>
+このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -1822,7 +1822,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1836,7 +1836,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.11328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -266,10 +269,6 @@
   </si>
   <si>
     <t>生活背景に関するObservation（収集したり観察した事実など）の制約プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1745,55 +1744,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1857,226 +1856,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>85</v>
@@ -2091,10 +2090,10 @@
         <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -2103,20 +2102,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>91</v>
@@ -2135,83 +2134,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -2220,20 +2219,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>91</v>
@@ -2250,83 +2249,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -2335,17 +2334,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>91</v>
@@ -2367,83 +2366,83 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2452,23 +2451,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>110</v>
@@ -2484,26 +2483,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>114</v>
@@ -2515,52 +2514,52 @@
         <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2573,19 +2572,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>120</v>
@@ -2601,83 +2600,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2690,19 +2689,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>128</v>
@@ -2718,83 +2717,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2807,19 +2806,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>136</v>
@@ -2835,83 +2834,83 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -2924,19 +2923,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>136</v>
@@ -2954,83 +2953,83 @@
         <v>145</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3039,20 +3038,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>91</v>
@@ -3071,62 +3070,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>102</v>
@@ -3135,7 +3134,7 @@
         <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>153</v>
@@ -3147,7 +3146,7 @@
         <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -3160,16 +3159,16 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>91</v>
@@ -3188,62 +3187,62 @@
         <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>102</v>
@@ -3252,7 +3251,7 @@
         <v>162</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>163</v>
@@ -3261,10 +3260,10 @@
         <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3277,16 +3276,16 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>91</v>
@@ -3305,62 +3304,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>102</v>
@@ -3369,7 +3368,7 @@
         <v>171</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>172</v>
@@ -3378,10 +3377,10 @@
         <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3390,7 +3389,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3400,7 +3399,7 @@
         <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>91</v>
@@ -3424,26 +3423,26 @@
         <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>179</v>
@@ -3455,19 +3454,19 @@
         <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>174</v>
@@ -3479,7 +3478,7 @@
         <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>102</v>
@@ -3500,7 +3499,7 @@
         <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -3509,23 +3508,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>188</v>
@@ -3543,26 +3542,26 @@
         <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>114</v>
@@ -3574,14 +3573,14 @@
         <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>196</v>
@@ -3590,25 +3589,25 @@
         <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>197</v>
@@ -3617,7 +3616,7 @@
         <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -3628,7 +3627,7 @@
         <v>199</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3638,13 +3637,13 @@
         <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>188</v>
@@ -3662,26 +3661,26 @@
         <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>114</v>
@@ -3693,43 +3692,43 @@
         <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>197</v>
@@ -3738,7 +3737,7 @@
         <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -3757,10 +3756,10 @@
         <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>91</v>
@@ -3781,26 +3780,26 @@
         <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>114</v>
@@ -3810,19 +3809,19 @@
         <v>208</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>202</v>
@@ -3834,7 +3833,7 @@
         <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>102</v>
@@ -3864,7 +3863,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3874,10 +3873,10 @@
         <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>91</v>
@@ -3898,62 +3897,62 @@
         <v>220</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>215</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>102</v>
@@ -3962,7 +3961,7 @@
         <v>221</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>222</v>
@@ -3974,7 +3973,7 @@
         <v>224</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -3983,20 +3982,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>91</v>
@@ -4015,71 +4014,71 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>225</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>211</v>
@@ -4091,7 +4090,7 @@
         <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4104,16 +4103,16 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>91</v>
@@ -4134,62 +4133,62 @@
         <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>231</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>102</v>
@@ -4198,7 +4197,7 @@
         <v>238</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>239</v>
@@ -4210,7 +4209,7 @@
         <v>241</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -4223,16 +4222,16 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>91</v>
@@ -4253,62 +4252,62 @@
         <v>248</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>242</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>102</v>
@@ -4317,7 +4316,7 @@
         <v>249</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>250</v>
@@ -4329,7 +4328,7 @@
         <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4338,20 +4337,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>91</v>
@@ -4370,71 +4369,71 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>258</v>
@@ -4446,7 +4445,7 @@
         <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -4455,20 +4454,20 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>91</v>
@@ -4489,62 +4488,62 @@
         <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>261</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>102</v>
@@ -4553,7 +4552,7 @@
         <v>267</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>268</v>
@@ -4565,7 +4564,7 @@
         <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -4574,20 +4573,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>91</v>
@@ -4608,56 +4607,56 @@
         <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>90</v>
@@ -4669,7 +4668,7 @@
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>278</v>
@@ -4681,7 +4680,7 @@
         <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>281</v>
@@ -4693,23 +4692,23 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>188</v>
@@ -4727,26 +4726,26 @@
         <v>286</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>287</v>
@@ -4758,25 +4757,25 @@
         <v>289</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>90</v>
@@ -4788,10 +4787,10 @@
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>133</v>
@@ -4800,10 +4799,10 @@
         <v>291</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -4816,19 +4815,19 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>188</v>
@@ -4846,26 +4845,26 @@
         <v>297</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>287</v>
@@ -4877,37 +4876,37 @@
         <v>299</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>300</v>
@@ -4919,7 +4918,7 @@
         <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>303</v>
@@ -4931,23 +4930,23 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>305</v>
@@ -4965,71 +4964,71 @@
         <v>309</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>304</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>310</v>
@@ -5038,10 +5037,10 @@
         <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -5050,23 +5049,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>188</v>
@@ -5082,26 +5081,26 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>316</v>
@@ -5113,37 +5112,37 @@
         <v>318</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>312</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>319</v>
@@ -5155,7 +5154,7 @@
         <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>322</v>
@@ -5167,23 +5166,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>188</v>
@@ -5201,26 +5200,26 @@
         <v>326</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>316</v>
@@ -5232,40 +5231,40 @@
         <v>328</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>329</v>
@@ -5274,10 +5273,10 @@
         <v>330</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -5286,23 +5285,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>332</v>
@@ -5318,68 +5317,68 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>331</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>336</v>
@@ -5391,7 +5390,7 @@
         <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>339</v>
@@ -5403,23 +5402,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>341</v>
@@ -5435,68 +5434,68 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>340</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>345</v>
@@ -5508,7 +5507,7 @@
         <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>348</v>
@@ -5520,23 +5519,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>350</v>
@@ -5554,71 +5553,71 @@
         <v>354</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>349</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>355</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>356</v>
@@ -5627,10 +5626,10 @@
         <v>357</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -5639,23 +5638,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>359</v>
@@ -5669,83 +5668,83 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -5758,19 +5757,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>136</v>
@@ -5786,83 +5785,83 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -5875,13 +5874,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>91</v>
@@ -5905,83 +5904,83 @@
         <v>145</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -5990,23 +5989,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>373</v>
@@ -6020,56 +6019,56 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>90</v>
@@ -6081,10 +6080,10 @@
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>377</v>
@@ -6093,10 +6092,10 @@
         <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -6105,23 +6104,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>373</v>
@@ -6135,56 +6134,56 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>90</v>
@@ -6196,10 +6195,10 @@
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>377</v>
@@ -6208,10 +6207,10 @@
         <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -6220,23 +6219,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>188</v>
@@ -6254,26 +6253,26 @@
         <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>114</v>
@@ -6285,37 +6284,37 @@
         <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>390</v>
@@ -6327,10 +6326,10 @@
         <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -6339,23 +6338,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>188</v>
@@ -6373,26 +6372,26 @@
         <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>316</v>
@@ -6404,37 +6403,37 @@
         <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>390</v>
@@ -6446,10 +6445,10 @@
         <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -6458,23 +6457,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>400</v>
@@ -6490,83 +6489,83 @@
         <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -6575,23 +6574,23 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>359</v>
@@ -6605,71 +6604,71 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>377</v>
@@ -6678,10 +6677,10 @@
         <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -6690,20 +6689,20 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>91</v>
@@ -6722,71 +6721,71 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>414</v>
@@ -6795,10 +6794,10 @@
         <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -6807,20 +6806,20 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>91</v>
@@ -6839,71 +6838,71 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>414</v>
@@ -6912,10 +6911,10 @@
         <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -6924,20 +6923,20 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>91</v>
@@ -6958,71 +6957,71 @@
         <v>426</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>427</v>
@@ -7031,10 +7030,10 @@
         <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -7043,23 +7042,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>359</v>
@@ -7073,83 +7072,83 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -7162,19 +7161,19 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>136</v>
@@ -7190,83 +7189,83 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -7279,13 +7278,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>91</v>
@@ -7309,83 +7308,83 @@
         <v>145</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
@@ -7394,7 +7393,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7404,10 +7403,10 @@
         <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>91</v>
@@ -7428,26 +7427,26 @@
         <v>207</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>316</v>
@@ -7459,19 +7458,19 @@
         <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>432</v>
@@ -7483,13 +7482,13 @@
         <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>438</v>
@@ -7504,7 +7503,7 @@
         <v>213</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
@@ -7513,20 +7512,20 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>91</v>
@@ -7547,68 +7546,68 @@
         <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>444</v>
@@ -7620,7 +7619,7 @@
         <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>281</v>
@@ -7632,23 +7631,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>188</v>
@@ -7666,26 +7665,26 @@
         <v>286</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>287</v>
@@ -7697,25 +7696,25 @@
         <v>289</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>90</v>
@@ -7727,10 +7726,10 @@
         <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>133</v>
@@ -7739,10 +7738,10 @@
         <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -7755,19 +7754,19 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>188</v>
@@ -7785,26 +7784,26 @@
         <v>452</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>287</v>
@@ -7816,37 +7815,37 @@
         <v>299</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>300</v>
@@ -7858,7 +7857,7 @@
         <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>303</v>
@@ -7870,26 +7869,26 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>454</v>
@@ -7904,71 +7903,71 @@
         <v>457</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>453</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>356</v>
@@ -7977,10 +7976,10 @@
         <v>357</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
